--- a/tabelas_template/DISPLAY SAMSUNG ORIGINAL CHINA.xlsx
+++ b/tabelas_template/DISPLAY SAMSUNG ORIGINAL CHINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF80FAB-005E-4BC5-9359-3076268BC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E5EBD-8748-486E-99B1-14C775375F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5780,8 +5780,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -5934,7 +5933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5962,16 +5961,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5987,16 +5980,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6283,7 +6273,7 @@
   <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+      <selection activeCell="B2" sqref="B2:B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,10 +6283,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6304,7 +6294,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>100</v>
       </c>
     </row>
@@ -6312,7 +6302,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>120</v>
       </c>
     </row>
@@ -6320,7 +6310,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>140</v>
       </c>
     </row>
@@ -6328,7 +6318,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>165</v>
       </c>
     </row>
@@ -6336,7 +6326,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>115</v>
       </c>
     </row>
@@ -6344,7 +6334,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>130</v>
       </c>
     </row>
@@ -6352,7 +6342,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>175</v>
       </c>
     </row>
@@ -6360,7 +6350,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>195</v>
       </c>
     </row>
@@ -6368,7 +6358,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>170</v>
       </c>
     </row>
@@ -6376,7 +6366,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>175</v>
       </c>
     </row>
@@ -6384,7 +6374,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>45</v>
       </c>
     </row>
@@ -6392,7 +6382,7 @@
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="12">
         <v>120</v>
       </c>
     </row>
@@ -6400,7 +6390,7 @@
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="12">
         <v>110</v>
       </c>
     </row>
@@ -6408,7 +6398,7 @@
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="12">
         <v>120</v>
       </c>
     </row>
@@ -6416,7 +6406,7 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6424,7 +6414,7 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>120</v>
       </c>
     </row>
@@ -6432,7 +6422,7 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>45</v>
       </c>
     </row>
@@ -6440,7 +6430,7 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>115</v>
       </c>
     </row>
@@ -6448,7 +6438,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>165</v>
       </c>
     </row>
@@ -6456,7 +6446,7 @@
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>125</v>
       </c>
     </row>
@@ -6464,7 +6454,7 @@
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="11">
         <v>115</v>
       </c>
     </row>
@@ -6472,7 +6462,7 @@
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>115</v>
       </c>
     </row>
@@ -6480,7 +6470,7 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>45</v>
       </c>
     </row>
@@ -6488,7 +6478,7 @@
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <v>60</v>
       </c>
     </row>
@@ -6496,7 +6486,7 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="11">
         <v>120</v>
       </c>
     </row>
@@ -6504,7 +6494,7 @@
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="11">
         <v>170</v>
       </c>
     </row>
@@ -6512,7 +6502,7 @@
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6520,7 +6510,7 @@
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="11">
         <v>60</v>
       </c>
     </row>
@@ -6528,7 +6518,7 @@
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="11">
         <v>80</v>
       </c>
     </row>
@@ -6536,7 +6526,7 @@
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6544,7 +6534,7 @@
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6552,7 +6542,7 @@
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>75</v>
       </c>
     </row>
@@ -6560,7 +6550,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6568,7 +6558,7 @@
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6576,7 +6566,7 @@
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="11">
         <v>75</v>
       </c>
     </row>
@@ -6584,7 +6574,7 @@
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="11">
         <v>90</v>
       </c>
     </row>
@@ -6592,7 +6582,7 @@
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6600,7 +6590,7 @@
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="11">
         <v>60</v>
       </c>
     </row>
@@ -6608,7 +6598,7 @@
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="11">
         <v>75</v>
       </c>
     </row>
@@ -6616,7 +6606,7 @@
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="11">
         <v>85</v>
       </c>
     </row>
@@ -6624,7 +6614,7 @@
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="11">
         <v>65</v>
       </c>
     </row>
@@ -6632,7 +6622,7 @@
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="11">
         <v>80</v>
       </c>
     </row>
@@ -6640,7 +6630,7 @@
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="11">
         <v>100</v>
       </c>
     </row>
@@ -6648,7 +6638,7 @@
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="11">
         <v>60</v>
       </c>
     </row>
@@ -6656,7 +6646,7 @@
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="11">
         <v>80</v>
       </c>
     </row>
@@ -6664,7 +6654,7 @@
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="11">
         <v>95</v>
       </c>
     </row>
@@ -6672,7 +6662,7 @@
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6680,7 +6670,7 @@
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="11">
         <v>60</v>
       </c>
     </row>
@@ -6688,7 +6678,7 @@
       <c r="A50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="12">
         <v>95</v>
       </c>
     </row>
@@ -6696,7 +6686,7 @@
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6704,7 +6694,7 @@
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="11">
         <v>60</v>
       </c>
     </row>
@@ -6712,7 +6702,7 @@
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="11">
         <v>75</v>
       </c>
     </row>
@@ -6720,7 +6710,7 @@
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="11">
         <v>90</v>
       </c>
     </row>
@@ -6728,7 +6718,7 @@
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6736,7 +6726,7 @@
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="11">
         <v>70</v>
       </c>
     </row>
@@ -6744,7 +6734,7 @@
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="11">
         <v>80</v>
       </c>
     </row>
@@ -6752,7 +6742,7 @@
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="11">
         <v>105</v>
       </c>
     </row>
@@ -6760,7 +6750,7 @@
       <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6768,7 +6758,7 @@
       <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="11">
         <v>65</v>
       </c>
     </row>
@@ -6776,7 +6766,7 @@
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="11">
         <v>75</v>
       </c>
     </row>
@@ -6784,7 +6774,7 @@
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="12">
         <v>90</v>
       </c>
     </row>
@@ -6792,7 +6782,7 @@
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="12">
         <v>65</v>
       </c>
     </row>
@@ -6800,7 +6790,7 @@
       <c r="A64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="12">
         <v>75</v>
       </c>
     </row>
@@ -6808,7 +6798,7 @@
       <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="11">
         <v>85</v>
       </c>
     </row>
@@ -6816,7 +6806,7 @@
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="11">
         <v>95</v>
       </c>
     </row>
@@ -6824,7 +6814,7 @@
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="11">
         <v>80</v>
       </c>
     </row>
@@ -6832,7 +6822,7 @@
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="11">
         <v>90</v>
       </c>
     </row>
@@ -6840,7 +6830,7 @@
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="11">
         <v>100</v>
       </c>
     </row>
@@ -6848,7 +6838,7 @@
       <c r="A70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="11">
         <v>115</v>
       </c>
     </row>
@@ -6856,7 +6846,7 @@
       <c r="A71" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="11">
         <v>85</v>
       </c>
     </row>
@@ -6864,7 +6854,7 @@
       <c r="A72" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="11">
         <v>120</v>
       </c>
     </row>
@@ -6872,7 +6862,7 @@
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6880,7 +6870,7 @@
       <c r="A74" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6888,7 +6878,7 @@
       <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="11">
         <v>70</v>
       </c>
     </row>
@@ -6896,7 +6886,7 @@
       <c r="A76" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="11">
         <v>85</v>
       </c>
     </row>
@@ -6904,7 +6894,7 @@
       <c r="A77" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6912,7 +6902,7 @@
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6920,7 +6910,7 @@
       <c r="A79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="11">
         <v>70</v>
       </c>
     </row>
@@ -6928,7 +6918,7 @@
       <c r="A80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="11">
         <v>90</v>
       </c>
     </row>
@@ -6936,7 +6926,7 @@
       <c r="A81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="11">
         <v>55</v>
       </c>
     </row>
@@ -6944,7 +6934,7 @@
       <c r="A82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="11">
         <v>65</v>
       </c>
     </row>
@@ -6952,7 +6942,7 @@
       <c r="A83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="11">
         <v>75</v>
       </c>
     </row>
@@ -6960,7 +6950,7 @@
       <c r="A84" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="11">
         <v>90</v>
       </c>
     </row>
@@ -6968,7 +6958,7 @@
       <c r="A85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="18">
+      <c r="B85" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6976,7 +6966,7 @@
       <c r="A86" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="11">
         <v>60</v>
       </c>
     </row>
@@ -6984,7 +6974,7 @@
       <c r="A87" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="11">
         <v>75</v>
       </c>
     </row>
@@ -6992,7 +6982,7 @@
       <c r="A88" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7000,7 +6990,7 @@
       <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="18">
+      <c r="B89" s="11">
         <v>60</v>
       </c>
     </row>
@@ -7008,7 +6998,7 @@
       <c r="A90" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="11">
         <v>65</v>
       </c>
     </row>
@@ -7016,7 +7006,7 @@
       <c r="A91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="18">
+      <c r="B91" s="11">
         <v>80</v>
       </c>
     </row>
@@ -7024,7 +7014,7 @@
       <c r="A92" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="18">
+      <c r="B92" s="11">
         <v>95</v>
       </c>
     </row>
@@ -7032,7 +7022,7 @@
       <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93" s="11">
         <v>55</v>
       </c>
     </row>
@@ -7040,7 +7030,7 @@
       <c r="A94" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="11">
         <v>65</v>
       </c>
     </row>
@@ -7048,7 +7038,7 @@
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="11">
         <v>75</v>
       </c>
     </row>
@@ -7056,7 +7046,7 @@
       <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B96" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7064,7 +7054,7 @@
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="18">
+      <c r="B97" s="11">
         <v>105</v>
       </c>
     </row>
@@ -7072,7 +7062,7 @@
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B98" s="11">
         <v>70</v>
       </c>
     </row>
@@ -7080,7 +7070,7 @@
       <c r="A99" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="12">
         <v>80</v>
       </c>
     </row>
@@ -7088,15 +7078,15 @@
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="18">
+      <c r="B100" s="11">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7104,15 +7094,15 @@
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="18">
+      <c r="B102" s="11">
         <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7120,7 +7110,7 @@
       <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="18">
+      <c r="B104" s="11">
         <v>215</v>
       </c>
     </row>
@@ -7128,7 +7118,7 @@
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="18">
+      <c r="B105" s="11">
         <v>135</v>
       </c>
     </row>
@@ -7136,7 +7126,7 @@
       <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B106" s="11">
         <v>140</v>
       </c>
     </row>
@@ -7144,7 +7134,7 @@
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="18">
+      <c r="B107" s="11">
         <v>170</v>
       </c>
     </row>
@@ -7152,7 +7142,7 @@
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="18">
+      <c r="B108" s="11">
         <v>50</v>
       </c>
     </row>
@@ -7160,7 +7150,7 @@
       <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="18">
+      <c r="B109" s="11">
         <v>60</v>
       </c>
     </row>
@@ -7168,7 +7158,7 @@
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B110" s="18">
+      <c r="B110" s="11">
         <v>75</v>
       </c>
     </row>
@@ -7176,7 +7166,7 @@
       <c r="A111" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B111" s="18">
+      <c r="B111" s="11">
         <v>95</v>
       </c>
     </row>
@@ -7184,7 +7174,7 @@
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="11">
         <v>50</v>
       </c>
     </row>
@@ -7192,7 +7182,7 @@
       <c r="A113" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="18">
+      <c r="B113" s="11">
         <v>60</v>
       </c>
     </row>
@@ -7200,7 +7190,7 @@
       <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="11">
         <v>70</v>
       </c>
     </row>
@@ -7208,7 +7198,7 @@
       <c r="A115" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="19">
+      <c r="B115" s="12">
         <v>90</v>
       </c>
     </row>
@@ -7216,7 +7206,7 @@
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="18">
+      <c r="B116" s="11">
         <v>145</v>
       </c>
     </row>
@@ -7224,7 +7214,7 @@
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="11">
         <v>175</v>
       </c>
     </row>
@@ -7232,7 +7222,7 @@
       <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="11">
         <v>60</v>
       </c>
     </row>
@@ -7240,7 +7230,7 @@
       <c r="A119" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="11">
         <v>75</v>
       </c>
     </row>
@@ -7248,7 +7238,7 @@
       <c r="A120" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B120" s="18">
+      <c r="B120" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7256,7 +7246,7 @@
       <c r="A121" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="11">
         <v>100</v>
       </c>
     </row>
@@ -7264,7 +7254,7 @@
       <c r="A122" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="19">
+      <c r="B122" s="12">
         <v>70</v>
       </c>
     </row>
@@ -7272,7 +7262,7 @@
       <c r="A123" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="18">
+      <c r="B123" s="11">
         <v>75</v>
       </c>
     </row>
@@ -7280,7 +7270,7 @@
       <c r="A124" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="18">
+      <c r="B124" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7288,7 +7278,7 @@
       <c r="A125" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B125" s="18">
+      <c r="B125" s="11">
         <v>100</v>
       </c>
     </row>
@@ -7296,15 +7286,15 @@
       <c r="A126" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="11">
         <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7312,7 +7302,7 @@
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B128" s="11">
         <v>95</v>
       </c>
     </row>
@@ -7320,7 +7310,7 @@
       <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="18">
+      <c r="B129" s="11">
         <v>105</v>
       </c>
     </row>
@@ -7328,7 +7318,7 @@
       <c r="A130" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="18">
+      <c r="B130" s="11">
         <v>170</v>
       </c>
     </row>
@@ -7336,7 +7326,7 @@
       <c r="A131" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="18">
+      <c r="B131" s="11">
         <v>175</v>
       </c>
     </row>
@@ -7344,7 +7334,7 @@
       <c r="A132" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B132" s="18">
+      <c r="B132" s="11">
         <v>285</v>
       </c>
     </row>
@@ -7352,7 +7342,7 @@
       <c r="A133" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B133" s="18">
+      <c r="B133" s="11">
         <v>170</v>
       </c>
     </row>
@@ -7360,7 +7350,7 @@
       <c r="A134" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B134" s="18">
+      <c r="B134" s="11">
         <v>175</v>
       </c>
     </row>
@@ -7368,7 +7358,7 @@
       <c r="A135" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="18">
+      <c r="B135" s="11">
         <v>215</v>
       </c>
     </row>
@@ -7376,7 +7366,7 @@
       <c r="A136" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B136" s="19">
+      <c r="B136" s="12">
         <v>135</v>
       </c>
     </row>
@@ -7384,7 +7374,7 @@
       <c r="A137" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="11">
         <v>145</v>
       </c>
     </row>
@@ -7392,7 +7382,7 @@
       <c r="A138" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="11">
         <v>170</v>
       </c>
     </row>
@@ -7400,7 +7390,7 @@
       <c r="A139" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7408,7 +7398,7 @@
       <c r="A140" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B140" s="19">
+      <c r="B140" s="12">
         <v>145</v>
       </c>
     </row>
@@ -7416,7 +7406,7 @@
       <c r="A141" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B141" s="19">
+      <c r="B141" s="12">
         <v>170</v>
       </c>
     </row>
@@ -7424,7 +7414,7 @@
       <c r="A142" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B142" s="19">
+      <c r="B142" s="12">
         <v>150</v>
       </c>
     </row>
@@ -7432,7 +7422,7 @@
       <c r="A143" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="11">
         <v>175</v>
       </c>
     </row>
@@ -7440,7 +7430,7 @@
       <c r="A144" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="12">
         <v>170</v>
       </c>
     </row>
@@ -7448,7 +7438,7 @@
       <c r="A145" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B145" s="19">
+      <c r="B145" s="12">
         <v>180</v>
       </c>
     </row>
@@ -7456,7 +7446,7 @@
       <c r="A146" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B146" s="18">
+      <c r="B146" s="11">
         <v>50</v>
       </c>
     </row>
@@ -7464,7 +7454,7 @@
       <c r="A147" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B147" s="18">
+      <c r="B147" s="11">
         <v>70</v>
       </c>
     </row>
@@ -7472,7 +7462,7 @@
       <c r="A148" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B148" s="18">
+      <c r="B148" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7480,7 +7470,7 @@
       <c r="A149" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B149" s="19">
+      <c r="B149" s="12">
         <v>180</v>
       </c>
     </row>
@@ -7488,7 +7478,7 @@
       <c r="A150" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B150" s="19">
+      <c r="B150" s="12">
         <v>205</v>
       </c>
     </row>
@@ -7496,7 +7486,7 @@
       <c r="A151" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B151" s="19">
+      <c r="B151" s="12">
         <v>180</v>
       </c>
     </row>
@@ -7504,7 +7494,7 @@
       <c r="A152" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B152" s="19">
+      <c r="B152" s="12">
         <v>245</v>
       </c>
     </row>
@@ -7512,7 +7502,7 @@
       <c r="A153" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B153" s="19">
+      <c r="B153" s="12">
         <v>305</v>
       </c>
     </row>
@@ -7520,7 +7510,7 @@
       <c r="A154" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7528,7 +7518,7 @@
       <c r="A155" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B155" s="19">
+      <c r="B155" s="12">
         <v>145</v>
       </c>
     </row>
@@ -7536,7 +7526,7 @@
       <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B156" s="19">
+      <c r="B156" s="12">
         <v>170</v>
       </c>
     </row>
@@ -7544,7 +7534,7 @@
       <c r="A157" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B157" s="19">
+      <c r="B157" s="12">
         <v>305</v>
       </c>
     </row>
@@ -7552,7 +7542,7 @@
       <c r="A158" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B158" s="19">
+      <c r="B158" s="12">
         <v>155</v>
       </c>
     </row>
@@ -7560,7 +7550,7 @@
       <c r="A159" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7568,7 +7558,7 @@
       <c r="A160" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B160" s="19">
+      <c r="B160" s="12">
         <v>210</v>
       </c>
     </row>
@@ -7576,7 +7566,7 @@
       <c r="A161" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B161" s="19">
+      <c r="B161" s="12">
         <v>180</v>
       </c>
     </row>
@@ -7584,7 +7574,7 @@
       <c r="A162" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7592,7 +7582,7 @@
       <c r="A163" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B163" s="19">
+      <c r="B163" s="12">
         <v>265</v>
       </c>
     </row>
@@ -7600,7 +7590,7 @@
       <c r="A164" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B164" s="19">
+      <c r="B164" s="12">
         <v>175</v>
       </c>
     </row>
@@ -7608,7 +7598,7 @@
       <c r="A165" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7616,7 +7606,7 @@
       <c r="A166" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="19">
+      <c r="B166" s="12">
         <v>280</v>
       </c>
     </row>
@@ -7624,7 +7614,7 @@
       <c r="A167" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="19">
+      <c r="B167" s="12">
         <v>175</v>
       </c>
     </row>
@@ -7632,7 +7622,7 @@
       <c r="A168" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="19">
+      <c r="B168" s="12">
         <v>250</v>
       </c>
     </row>
@@ -7640,7 +7630,7 @@
       <c r="A169" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B169" s="19">
+      <c r="B169" s="12">
         <v>290</v>
       </c>
     </row>
@@ -7648,7 +7638,7 @@
       <c r="A170" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B170" s="19">
+      <c r="B170" s="12">
         <v>140</v>
       </c>
     </row>
@@ -7656,7 +7646,7 @@
       <c r="A171" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7664,7 +7654,7 @@
       <c r="A172" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B172" s="19">
+      <c r="B172" s="12">
         <v>480</v>
       </c>
     </row>
@@ -7672,7 +7662,7 @@
       <c r="A173" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B173" s="19">
+      <c r="B173" s="12">
         <v>155</v>
       </c>
     </row>
@@ -7680,7 +7670,7 @@
       <c r="A174" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B174" s="19">
+      <c r="B174" s="12">
         <v>225</v>
       </c>
     </row>
@@ -7688,7 +7678,7 @@
       <c r="A175" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B175" s="19">
+      <c r="B175" s="12">
         <v>255</v>
       </c>
     </row>
@@ -7696,7 +7686,7 @@
       <c r="A176" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B176" s="19">
+      <c r="B176" s="12">
         <v>195</v>
       </c>
     </row>
@@ -7704,7 +7694,7 @@
       <c r="A177" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B177" s="19">
+      <c r="B177" s="12">
         <v>245</v>
       </c>
     </row>
@@ -7712,7 +7702,7 @@
       <c r="A178" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B178" s="19">
+      <c r="B178" s="12">
         <v>450</v>
       </c>
     </row>
@@ -7720,7 +7710,7 @@
       <c r="A179" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B179" s="19">
+      <c r="B179" s="12">
         <v>280</v>
       </c>
     </row>
@@ -7728,7 +7718,7 @@
       <c r="A180" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B180" s="19">
+      <c r="B180" s="12">
         <v>500</v>
       </c>
     </row>
@@ -7736,7 +7726,7 @@
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B181" s="19">
+      <c r="B181" s="12">
         <v>300</v>
       </c>
     </row>
@@ -7744,7 +7734,7 @@
       <c r="A182" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B182" s="19">
+      <c r="B182" s="12">
         <v>400</v>
       </c>
     </row>
@@ -7752,7 +7742,7 @@
       <c r="A183" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B183" s="18">
+      <c r="B183" s="11">
         <v>55</v>
       </c>
     </row>
@@ -7760,7 +7750,7 @@
       <c r="A184" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B184" s="18">
+      <c r="B184" s="11">
         <v>70</v>
       </c>
     </row>
@@ -7768,7 +7758,7 @@
       <c r="A185" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B185" s="18">
+      <c r="B185" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7776,7 +7766,7 @@
       <c r="A186" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="19">
+      <c r="B186" s="12">
         <v>55</v>
       </c>
     </row>
@@ -7784,7 +7774,7 @@
       <c r="A187" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B187" s="18">
+      <c r="B187" s="11">
         <v>70</v>
       </c>
     </row>
@@ -7792,7 +7782,7 @@
       <c r="A188" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B188" s="18">
+      <c r="B188" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7800,7 +7790,7 @@
       <c r="A189" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B189" s="18">
+      <c r="B189" s="11">
         <v>80</v>
       </c>
     </row>
@@ -7808,7 +7798,7 @@
       <c r="A190" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B190" s="18">
+      <c r="B190" s="11">
         <v>90</v>
       </c>
     </row>
@@ -7816,7 +7806,7 @@
       <c r="A191" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B191" s="18">
+      <c r="B191" s="11">
         <v>105</v>
       </c>
     </row>
@@ -7824,7 +7814,7 @@
       <c r="A192" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7832,7 +7822,7 @@
       <c r="A193" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B193" s="18">
+      <c r="B193" s="11">
         <v>55</v>
       </c>
     </row>
@@ -7840,7 +7830,7 @@
       <c r="A194" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B194" s="18">
+      <c r="B194" s="11">
         <v>70</v>
       </c>
     </row>
@@ -7848,7 +7838,7 @@
       <c r="A195" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B195" s="18">
+      <c r="B195" s="11">
         <v>80</v>
       </c>
     </row>
@@ -7856,7 +7846,7 @@
       <c r="A196" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B196" s="18">
+      <c r="B196" s="11">
         <v>155</v>
       </c>
     </row>
@@ -7864,7 +7854,7 @@
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B197" s="18">
+      <c r="B197" s="11">
         <v>75</v>
       </c>
     </row>
@@ -7872,7 +7862,7 @@
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="18">
+      <c r="B198" s="11">
         <v>85</v>
       </c>
     </row>
@@ -7880,7 +7870,7 @@
       <c r="A199" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="19">
+      <c r="B199" s="12">
         <v>110</v>
       </c>
     </row>
@@ -7888,7 +7878,7 @@
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="20">
+      <c r="B200" s="13">
         <v>145</v>
       </c>
     </row>
@@ -7896,7 +7886,7 @@
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B201" s="20">
+      <c r="B201" s="13">
         <v>150</v>
       </c>
     </row>
@@ -7904,7 +7894,7 @@
       <c r="A202" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B202" s="20">
+      <c r="B202" s="13">
         <v>175</v>
       </c>
     </row>
@@ -7912,7 +7902,7 @@
       <c r="A203" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7920,7 +7910,7 @@
       <c r="A204" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B204" s="20">
+      <c r="B204" s="13">
         <v>185</v>
       </c>
     </row>
@@ -7928,7 +7918,7 @@
       <c r="A205" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B205" s="20">
+      <c r="B205" s="13">
         <v>340</v>
       </c>
     </row>
@@ -7936,7 +7926,7 @@
       <c r="A206" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B206" s="20">
+      <c r="B206" s="13">
         <v>170</v>
       </c>
     </row>
@@ -7944,7 +7934,7 @@
       <c r="A207" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B207" s="20">
+      <c r="B207" s="13">
         <v>270</v>
       </c>
     </row>
@@ -7952,7 +7942,7 @@
       <c r="A208" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B208" s="20">
+      <c r="B208" s="13">
         <v>170</v>
       </c>
     </row>
@@ -7960,7 +7950,7 @@
       <c r="A209" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B209" s="20">
+      <c r="B209" s="13">
         <v>190</v>
       </c>
     </row>
@@ -7968,7 +7958,7 @@
       <c r="A210" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B210" s="20">
+      <c r="B210" s="13">
         <v>280</v>
       </c>
     </row>
@@ -7976,7 +7966,7 @@
       <c r="A211" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="20">
+      <c r="B211" s="13">
         <v>450</v>
       </c>
     </row>
@@ -7984,7 +7974,7 @@
       <c r="A212" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B212" s="20">
+      <c r="B212" s="13">
         <v>180</v>
       </c>
     </row>
@@ -7992,7 +7982,7 @@
       <c r="A213" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B213" s="14" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8000,7 +7990,7 @@
       <c r="A214" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B214" s="15" t="s">
+      <c r="B214" s="13" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8008,7 +7998,7 @@
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B215" s="20">
+      <c r="B215" s="13">
         <v>265</v>
       </c>
     </row>
@@ -8016,7 +8006,7 @@
       <c r="A216" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B216" s="16" t="s">
+      <c r="B216" s="14" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8024,7 +8014,7 @@
       <c r="A217" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="13" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8032,7 +8022,7 @@
       <c r="A218" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B218" s="20">
+      <c r="B218" s="13">
         <v>290</v>
       </c>
     </row>
@@ -8040,7 +8030,7 @@
       <c r="A219" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B219" s="20">
+      <c r="B219" s="13">
         <v>280</v>
       </c>
     </row>
@@ -8048,7 +8038,7 @@
       <c r="A220" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B220" s="20">
+      <c r="B220" s="13">
         <v>350</v>
       </c>
     </row>
@@ -8056,7 +8046,7 @@
       <c r="A221" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B221" s="20">
+      <c r="B221" s="13">
         <v>150</v>
       </c>
     </row>
@@ -8064,7 +8054,7 @@
       <c r="A222" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B222" s="20">
+      <c r="B222" s="13">
         <v>230</v>
       </c>
     </row>
@@ -8072,7 +8062,7 @@
       <c r="A223" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B223" s="20">
+      <c r="B223" s="13">
         <v>200</v>
       </c>
     </row>
@@ -8080,7 +8070,7 @@
       <c r="A224" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B224" s="20">
+      <c r="B224" s="13">
         <v>460</v>
       </c>
     </row>
@@ -8088,7 +8078,7 @@
       <c r="A225" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B225" s="20">
+      <c r="B225" s="13">
         <v>545</v>
       </c>
     </row>
@@ -8096,7 +8086,7 @@
       <c r="A226" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B226" s="13" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8104,7 +8094,7 @@
       <c r="A227" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B227" s="20">
+      <c r="B227" s="13">
         <v>575</v>
       </c>
     </row>
@@ -8112,7 +8102,7 @@
       <c r="A228" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B228" s="20">
+      <c r="B228" s="13">
         <v>545</v>
       </c>
     </row>
@@ -8120,7 +8110,7 @@
       <c r="A229" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B229" s="20">
+      <c r="B229" s="13">
         <v>900</v>
       </c>
     </row>
@@ -8128,7 +8118,7 @@
       <c r="A230" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B230" s="20">
+      <c r="B230" s="13">
         <v>545</v>
       </c>
     </row>
@@ -8136,7 +8126,7 @@
       <c r="A231" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B231" s="20">
+      <c r="B231" s="13">
         <v>1060</v>
       </c>
     </row>
@@ -8144,7 +8134,7 @@
       <c r="A232" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B232" s="20">
+      <c r="B232" s="13">
         <v>210</v>
       </c>
     </row>
@@ -8152,7 +8142,7 @@
       <c r="A233" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B233" s="21">
+      <c r="B233" s="18">
         <v>220</v>
       </c>
     </row>
@@ -8160,7 +8150,7 @@
       <c r="A234" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B234" s="17" t="s">
+      <c r="B234" s="15" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8168,7 +8158,7 @@
       <c r="A235" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8176,7 +8166,7 @@
       <c r="A236" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B236" s="20">
+      <c r="B236" s="13">
         <v>605</v>
       </c>
     </row>
@@ -8184,7 +8174,7 @@
       <c r="A237" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B237" s="20">
+      <c r="B237" s="13">
         <v>1500</v>
       </c>
     </row>
@@ -8192,7 +8182,7 @@
       <c r="A238" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B238" s="16" t="s">
+      <c r="B238" s="14" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8200,7 +8190,7 @@
       <c r="A239" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="13" t="s">
         <v>261</v>
       </c>
     </row>
@@ -8208,7 +8198,7 @@
       <c r="A240" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B240" s="20">
+      <c r="B240" s="13">
         <v>640</v>
       </c>
     </row>
@@ -8216,7 +8206,7 @@
       <c r="A241" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B241" s="16" t="s">
+      <c r="B241" s="14" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8224,7 +8214,7 @@
       <c r="A242" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="13" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8232,7 +8222,7 @@
       <c r="A243" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B243" s="20">
+      <c r="B243" s="13">
         <v>965</v>
       </c>
     </row>
@@ -8240,7 +8230,7 @@
       <c r="A244" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B244" s="20">
+      <c r="B244" s="13">
         <v>720</v>
       </c>
     </row>
@@ -8248,7 +8238,7 @@
       <c r="A245" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B245" s="20">
+      <c r="B245" s="13">
         <v>780</v>
       </c>
     </row>
@@ -8256,7 +8246,7 @@
       <c r="A246" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B246" s="21">
+      <c r="B246" s="18">
         <v>845</v>
       </c>
     </row>
@@ -8264,7 +8254,7 @@
       <c r="A247" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B247" s="16" t="s">
+      <c r="B247" s="14" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8272,7 +8262,7 @@
       <c r="A248" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B248" s="16" t="s">
+      <c r="B248" s="14" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8280,7 +8270,7 @@
       <c r="A249" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="13" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8288,7 +8278,7 @@
       <c r="A250" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B250" s="20">
+      <c r="B250" s="13">
         <v>820</v>
       </c>
     </row>
@@ -8296,7 +8286,7 @@
       <c r="A251" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="13" t="s">
         <v>214</v>
       </c>
     </row>
@@ -8304,7 +8294,7 @@
       <c r="A252" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B252" s="20">
+      <c r="B252" s="13">
         <v>720</v>
       </c>
     </row>
@@ -8312,7 +8302,7 @@
       <c r="A253" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B253" s="20">
+      <c r="B253" s="13">
         <v>1140</v>
       </c>
     </row>
@@ -8320,7 +8310,7 @@
       <c r="A254" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B254" s="20">
+      <c r="B254" s="13">
         <v>1120</v>
       </c>
     </row>
